--- a/src/DataForAccess/Book1.xlsx
+++ b/src/DataForAccess/Book1.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="384" windowWidth="22692" windowHeight="9276"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="17616" windowHeight="2760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -21,7 +22,7 @@
     <t xml:space="preserve">Sheet Name </t>
   </si>
   <si>
-    <t>Sample Excel Data</t>
+    <t>New Cell</t>
   </si>
 </sst>
 </file>
@@ -379,7 +380,7 @@
   <dimension ref="A2:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -392,7 +393,7 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
